--- a/medicine/Sexualité et sexologie/Natalie_Sorokin/Natalie_Sorokin.xlsx
+++ b/medicine/Sexualité et sexologie/Natalie_Sorokin/Natalie_Sorokin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Natalie Sorokin (ou Nathalie Sorokine), née en 1921[1] et morte le 20 décembre 1968 à San Francisco est une journaliste et écrivaine française.
-Elle est connue pour avoir fait partie du cercle d'amis des philosophes Simone de Beauvoir et Jean-Paul Sartre[2],[3][réf. incomplète] et avoir été l'amante occasionnelle de Simone de Beauvoir[4]. Beauvoir a été suspendue de son poste d'enseignante après avoir séduit une élève du lycée Molière de 17 ans en 1939, Bianca Bienenfeld[réf. nécessaire].
-Natalie Sorokin, ainsi que Bianca Bienenfeld et Olga Kosakiewicz, ont déclaré plus tard que leurs relations avec Sartre et Beauvoir les avaient endommagées psychologiquement[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natalie Sorokin (ou Nathalie Sorokine), née en 1921 et morte le 20 décembre 1968 à San Francisco est une journaliste et écrivaine française.
+Elle est connue pour avoir fait partie du cercle d'amis des philosophes Simone de Beauvoir et Jean-Paul Sartre,[réf. incomplète] et avoir été l'amante occasionnelle de Simone de Beauvoir. Beauvoir a été suspendue de son poste d'enseignante après avoir séduit une élève du lycée Molière de 17 ans en 1939, Bianca Bienenfeld[réf. nécessaire].
+Natalie Sorokin, ainsi que Bianca Bienenfeld et Olga Kosakiewicz, ont déclaré plus tard que leurs relations avec Sartre et Beauvoir les avaient endommagées psychologiquement.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>La vie existentielle avec Simone de Beauvoir</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Simone de Beauvoir est à nouveau[réf. nécessaire] suspendue le 17 juin 1943 à la suite d'une plainte pour « détournement de mineur » déposée en décembre 1941 par la mère de Natalie Sorokin, sa fille ayant refusé le prétendant choisi par ses parents. La plainte aboutira à un non-lieu— les relations physiques entre Beauvoir et Natalie Sorokine n'avaient pas encore été révélées et ne purent être prouvées[5] et Natalie Sorokine habitait alors avec un jeune amant juif algérien — mais elle est révoquée de l'Éducation nationale, où elle ne retournera jamais plus enseigner[4]. 
-Sorokin dira plus tard que sa relation avec Beauvoir et Sartre a pris fin lorsqu'elle a constaté que cette relation ne servait qu'une seule partie[6][citation nécessaire],[réf. incomplète].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simone de Beauvoir est à nouveau[réf. nécessaire] suspendue le 17 juin 1943 à la suite d'une plainte pour « détournement de mineur » déposée en décembre 1941 par la mère de Natalie Sorokin, sa fille ayant refusé le prétendant choisi par ses parents. La plainte aboutira à un non-lieu— les relations physiques entre Beauvoir et Natalie Sorokine n'avaient pas encore été révélées et ne purent être prouvées et Natalie Sorokine habitait alors avec un jeune amant juif algérien — mais elle est révoquée de l'Éducation nationale, où elle ne retournera jamais plus enseigner. 
+Sorokin dira plus tard que sa relation avec Beauvoir et Sartre a pris fin lorsqu'elle a constaté que cette relation ne servait qu'une seule partie[citation nécessaire],[réf. incomplète].
 Elle apparaît sous le nom de Lise dans La Force de l'âge et sous le nom de Nadine dans Les Mandarins.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Vie ultérieure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après s'être remise de son traumatisme, Natalie Sorokin a commencé à écrire et a travaillé pour la radio[4][citation nécessaire]. Elle a ensuite épousé Ivan Moffat, un ami de Beauvoir et de Sartre et le fils de l'actrice et poète britannique Iris Tree et de l'artiste et photographe Curtis Moffat[7]. Leur mariage a été bref et a donné naissance à une fille. Elle épouse Sydney Benson en secondes noces.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après s'être remise de son traumatisme, Natalie Sorokin a commencé à écrire et a travaillé pour la radio[citation nécessaire]. Elle a ensuite épousé Ivan Moffat, un ami de Beauvoir et de Sartre et le fils de l'actrice et poète britannique Iris Tree et de l'artiste et photographe Curtis Moffat. Leur mariage a été bref et a donné naissance à une fille. Elle épouse Sydney Benson en secondes noces.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Nathalie Moffat, « Nuits sans importance », Dalhousie French Studies,‎ 1985 (ISSN 0711-8813, OCLC 5543306914).</t>
         </is>
